--- a/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
+++ b/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
@@ -451,435 +451,585 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6889</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>008370</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>92.10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>9.03</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0827</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7459</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>519003</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>海富通收益增长混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>78.55</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.91</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>94.74</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>6.26</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>005043</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>国寿安保健康科学混合A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>92.20</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2.73</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005044</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国寿安保健康科学混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009805</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519026</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>海富通中小盘混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001645</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰大健康股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011321</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰大健康股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>020001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰金鹰增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160215</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519133</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>海富通改革驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519003</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通收益增长混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78.63</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4895</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>15.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3778</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1493</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>519005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>海富通股票混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>30.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0047</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8677</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006538</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东海核心价值精选混合</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7715</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519005</t>
+          <t>519003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海富通股票混合</t>
+          <t>海富通收益增长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>78.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4263</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>519026</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>海富通中小盘混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>008085</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>海富通先进制造股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519026</t>
+          <t>009025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海富通中小盘混合</t>
+          <t>海富通科技创新混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009025</t>
+          <t>008107</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海富通科技创新混合A</t>
+          <t>华商医药医疗行业股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009024</t>
+          <t>008084</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海富通科技创新混合C</t>
+          <t>海富通先进制造股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008085</t>
+          <t>009651</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海富通先进制造股票A</t>
+          <t>海富通成长甄选混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008084</t>
+          <t>009024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海富通先进制造股票C</t>
+          <t>海富通科技创新混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008107</t>
+          <t>009652</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华商医药医疗行业股票</t>
+          <t>海富通成长甄选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009651</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合A</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009652</t>
+          <t>006538</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合C</t>
+          <t>东海核心价值精选混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
+++ b/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4907</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1963</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1322</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9481</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6614</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6239</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3593</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
+++ b/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2664,4 +2665,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5313</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3516</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9991</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5284</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3748</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
+++ b/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3595,4 +3596,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
+++ b/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3604,7 +3605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3615,17 +3616,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3635,14 +3656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.19</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3651,14 +3694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.75</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5562</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3667,14 +3732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.68</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4861</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3683,13 +3770,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3448</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5425</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5214</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5183</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
+++ b/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4573,7 +4574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4584,17 +4585,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4604,14 +4625,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.37</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4620,14 +4663,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.19</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5798</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4636,14 +4701,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.75</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0938</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4652,14 +4739,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.68</v>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8641</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4668,13 +4777,851 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6940</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5686</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4643</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
+++ b/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5504,7 +5505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5515,17 +5516,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5535,14 +5556,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.68</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5551,14 +5594,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.37</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7869</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5567,14 +5632,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.19</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5583,14 +5670,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.75</v>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5599,14 +5708,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.68</v>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8165</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -5615,13 +5746,1091 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7521</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6627</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5850</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3155</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
+++ b/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>10.68</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>10.37</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>8.19</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>8.75</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>9.68</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.38</v>
       </c>
     </row>
@@ -600,6 +617,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5364</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6063</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8218</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7375</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国周期优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6441</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6403</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4477</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011565</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国周期优势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014750</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014751</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1791,7 +2966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2721,7 +3896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3689,7 +4864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4619,7 +5794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5473,7 +6648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6251,7 +7426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
+++ b/数据整理/stocks/A股/上证主板/603987-康德莱.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>9.949999999999999</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>10.68</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>10.37</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>8.19</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>8.75</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>9.68</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,618 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6889</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0827</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7459</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1222,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1532</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9284</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1774,7 +2929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2966,7 +4121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3896,7 +5051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4864,7 +6019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5794,7 +6949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6648,7 +7803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7424,592 +8579,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009805</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6911</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001645</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰大健康股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6889</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3747</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>020001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰金鹰增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3040</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519133</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海富通改革驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>55.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2401</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008370</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰研究精选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0827</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160215</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.8053</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519026</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>海富通中小盘混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.7459</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519003</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>海富通收益增长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3402</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005043</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国寿安保健康科学混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005044</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国寿安保健康科学混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011321</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰大健康股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>